--- a/Documentation/Scrum Artifacts/Meeting Log.xlsx
+++ b/Documentation/Scrum Artifacts/Meeting Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Project4\Documentation\Scrum Artifacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgatton/Documents/GitHub/FinalProject/Documentation/Scrum Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B63268-1337-8A44-B9C8-549835C06B4E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24600" windowHeight="13280"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24600" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
   <si>
     <t>Day</t>
   </si>
@@ -198,12 +199,57 @@
   </si>
   <si>
     <t>Finish with music and implement new players</t>
+  </si>
+  <si>
+    <t>9:00-10:00 am</t>
+  </si>
+  <si>
+    <t>Added Test Level</t>
+  </si>
+  <si>
+    <t>Finish Music and Test level</t>
+  </si>
+  <si>
+    <t>6:00 pm - 9:00 pm</t>
+  </si>
+  <si>
+    <t>9:00 am - 10:00 am</t>
+  </si>
+  <si>
+    <t>Finished Music and Added Player Select menu</t>
+  </si>
+  <si>
+    <t>Finish Test Level</t>
+  </si>
+  <si>
+    <t>Finished Test Level</t>
+  </si>
+  <si>
+    <t>Fix Health Bar and add new UI</t>
+  </si>
+  <si>
+    <t>Started Leaderboard</t>
+  </si>
+  <si>
+    <t>Changed UI and Got health bar to work</t>
+  </si>
+  <si>
+    <t>Finish leaderboard and make final changed to game</t>
+  </si>
+  <si>
+    <t>Get game on phone</t>
+  </si>
+  <si>
+    <t>6:30 pm - Midnight</t>
+  </si>
+  <si>
+    <t>Made final changes to the game</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,7 +272,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +333,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -300,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,9 +468,62 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,24 +811,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="47.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.36328125" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,7 +848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>43173</v>
       </c>
@@ -721,7 +868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -733,7 +880,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>43185</v>
       </c>
@@ -753,7 +900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -763,7 +910,7 @@
       </c>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43186</v>
       </c>
@@ -783,7 +930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -795,7 +942,7 @@
       </c>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43191</v>
       </c>
@@ -815,7 +962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -825,7 +972,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>43192</v>
       </c>
@@ -845,7 +992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>43192</v>
       </c>
@@ -865,7 +1012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>43193</v>
       </c>
@@ -885,7 +1032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>43194</v>
       </c>
@@ -903,7 +1050,7 @@
       </c>
       <c r="F13" s="24"/>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>43196</v>
       </c>
@@ -923,7 +1070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>43197</v>
       </c>
@@ -943,7 +1090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>43198</v>
       </c>
@@ -963,197 +1110,290 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="25">
         <v>43201</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="25">
         <v>43201</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="25">
+    <row r="19" spans="1:6" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
         <v>43206</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="25">
+    <row r="20" spans="1:6" s="32" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="30">
         <v>43208</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="25">
+    <row r="21" spans="1:6" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="33">
         <v>43213</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:6" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36">
+        <v>43215</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="41" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="39">
+        <v>43217</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="41" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="44" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="42">
+        <v>43220</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="44" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="45">
+        <v>43221</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+      <c r="C30" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="48" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="25">
+        <v>43222</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1161,7 +1401,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1169,7 +1409,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1177,7 +1417,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1185,7 +1425,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1193,7 +1433,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1201,7 +1441,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1209,7 +1449,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1217,7 +1457,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1225,7 +1465,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1233,7 +1473,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1241,7 +1481,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1249,7 +1489,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1257,7 +1497,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1265,7 +1505,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1273,7 +1513,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1281,7 +1521,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1289,7 +1529,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1297,7 +1537,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1305,7 +1545,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1313,7 +1553,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1321,7 +1561,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1329,7 +1569,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1337,7 +1577,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1345,7 +1585,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1353,7 +1593,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1361,7 +1601,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1369,7 +1609,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1377,7 +1617,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1385,7 +1625,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1393,7 +1633,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1401,7 +1641,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1409,7 +1649,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1417,7 +1657,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1425,7 +1665,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1433,7 +1673,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1441,7 +1681,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1449,7 +1689,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1457,7 +1697,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1465,7 +1705,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1473,7 +1713,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1481,7 +1721,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1489,7 +1729,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1497,7 +1737,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1505,7 +1745,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1513,7 +1753,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1521,7 +1761,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1529,7 +1769,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1537,7 +1777,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1545,7 +1785,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1553,7 +1793,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1561,7 +1801,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1569,7 +1809,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1577,7 +1817,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1585,7 +1825,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1593,7 +1833,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1601,7 +1841,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1609,7 +1849,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1617,7 +1857,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1625,7 +1865,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1633,7 +1873,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1641,7 +1881,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1649,7 +1889,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1657,7 +1897,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1665,7 +1905,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1673,7 +1913,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1681,7 +1921,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1689,7 +1929,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1697,7 +1937,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1705,7 +1945,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
